--- a/IntanReport_160510_Baihan.xlsx
+++ b/IntanReport_160510_Baihan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="3600" yWindow="460" windowWidth="15560" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t xml:space="preserve">Report date: </t>
   </si>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,1609 +636,970 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
         <v>13</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>7.7272999999999996</v>
       </c>
       <c r="G7" s="4">
-        <v>1</v>
+        <v>3.9091</v>
       </c>
       <c r="H7" s="4">
-        <v>6</v>
+        <v>8.2308000000000003</v>
       </c>
       <c r="I7" s="4">
-        <v>2.25</v>
+        <v>4.7691999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F8" s="4">
-        <v>7.7272999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="G8" s="4">
-        <v>3.9091</v>
+        <v>3</v>
       </c>
       <c r="H8" s="4">
-        <v>8.2308000000000003</v>
+        <v>5.6666999999999996</v>
       </c>
       <c r="I8" s="4">
-        <v>4.7691999999999997</v>
+        <v>3.1667000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4">
-        <v>7.7272999999999996</v>
+        <v>4.9706000000000001</v>
       </c>
       <c r="G9" s="4">
-        <v>3.9091</v>
+        <v>4.0293999999999999</v>
       </c>
       <c r="H9" s="4">
-        <v>8.2308000000000003</v>
+        <v>4.9573999999999998</v>
       </c>
       <c r="I9" s="4">
-        <v>4.7691999999999997</v>
+        <v>3.3191000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="F10" s="4">
-        <v>3.5</v>
+        <v>7.4118000000000004</v>
       </c>
       <c r="G10" s="4">
-        <v>3</v>
+        <v>3.0588000000000002</v>
       </c>
       <c r="H10" s="4">
-        <v>5.6666999999999996</v>
+        <v>12.1546</v>
       </c>
       <c r="I10" s="4">
-        <v>3.1667000000000001</v>
+        <v>7.6906999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F11" s="4">
-        <v>3.5</v>
+        <v>7.4839000000000002</v>
       </c>
       <c r="G11" s="4">
-        <v>3</v>
+        <v>4.4839000000000002</v>
       </c>
       <c r="H11" s="4">
-        <v>5.6666999999999996</v>
+        <v>7.9737</v>
       </c>
       <c r="I11" s="4">
-        <v>3.1667000000000001</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+        <v>5.0263</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E12" s="4">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4">
-        <v>4.9706000000000001</v>
+        <v>18.571400000000001</v>
       </c>
       <c r="G12" s="4">
-        <v>4.0293999999999999</v>
+        <v>16.428599999999999</v>
       </c>
       <c r="H12" s="4">
-        <v>4.9573999999999998</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="I12" s="4">
-        <v>3.3191000000000002</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="E13" s="4">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="F13" s="4">
-        <v>4.9706000000000001</v>
+        <v>9.2164000000000001</v>
       </c>
       <c r="G13" s="4">
-        <v>4.0293999999999999</v>
+        <v>7.3209</v>
       </c>
       <c r="H13" s="4">
-        <v>4.9573999999999998</v>
+        <v>16.389299999999999</v>
       </c>
       <c r="I13" s="4">
-        <v>3.3191000000000002</v>
+        <v>9.8550000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E14" s="4">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F14" s="4">
-        <v>7.4118000000000004</v>
+        <v>13.298500000000001</v>
       </c>
       <c r="G14" s="4">
-        <v>3.0588000000000002</v>
+        <v>11.7164</v>
       </c>
       <c r="H14" s="4">
-        <v>12.1546</v>
+        <v>19.134599999999999</v>
       </c>
       <c r="I14" s="4">
-        <v>7.6906999999999996</v>
+        <v>7.2885</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E15" s="4">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F15" s="4">
-        <v>7.4118000000000004</v>
+        <v>10.5686</v>
       </c>
       <c r="G15" s="4">
-        <v>3.0588000000000002</v>
+        <v>11.392200000000001</v>
       </c>
       <c r="H15" s="4">
-        <v>12.1546</v>
+        <v>16.525600000000001</v>
       </c>
       <c r="I15" s="4">
-        <v>7.6906999999999996</v>
-      </c>
-      <c r="M15" s="4"/>
+        <v>12.4872</v>
+      </c>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="E16" s="4">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F16" s="4">
-        <v>7.4839000000000002</v>
+        <v>16.282299999999999</v>
       </c>
       <c r="G16" s="4">
-        <v>4.4839000000000002</v>
+        <v>14.991899999999999</v>
       </c>
       <c r="H16" s="4">
-        <v>7.9737</v>
+        <v>21.595500000000001</v>
       </c>
       <c r="I16" s="4">
-        <v>5.0263</v>
+        <v>18.797799999999999</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4">
-        <v>7.4839000000000002</v>
+        <v>4.7058999999999997</v>
       </c>
       <c r="G17" s="4">
-        <v>4.4839000000000002</v>
+        <v>4.4118000000000004</v>
       </c>
       <c r="H17" s="4">
-        <v>7.9737</v>
+        <v>5.7332999999999998</v>
       </c>
       <c r="I17" s="4">
-        <v>5.0263</v>
+        <v>5.3333000000000004</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F18" s="4">
-        <v>18.571400000000001</v>
+        <v>3.4</v>
       </c>
       <c r="G18" s="4">
-        <v>16.428599999999999</v>
+        <v>3.2</v>
       </c>
       <c r="H18" s="4">
-        <v>18.899999999999999</v>
+        <v>6.0434999999999999</v>
       </c>
       <c r="I18" s="4">
-        <v>16.5</v>
+        <v>4.5217000000000001</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D19" s="4">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="E19" s="4">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="F19" s="4">
-        <v>18.571400000000001</v>
+        <v>27.766999999999999</v>
       </c>
       <c r="G19" s="4">
-        <v>16.428599999999999</v>
+        <v>18.427199999999999</v>
       </c>
       <c r="H19" s="4">
-        <v>18.899999999999999</v>
+        <v>33.494500000000002</v>
       </c>
       <c r="I19" s="4">
-        <v>16.5</v>
+        <v>20.2637</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D20" s="4">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="E20" s="4">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4">
-        <v>9.2164000000000001</v>
+        <v>32.9756</v>
       </c>
       <c r="G20" s="4">
-        <v>7.3209</v>
+        <v>31.9512</v>
       </c>
       <c r="H20" s="4">
-        <v>16.389299999999999</v>
+        <v>42.090899999999998</v>
       </c>
       <c r="I20" s="4">
-        <v>9.8550000000000004</v>
+        <v>25.5273</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E21" s="4">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="F21" s="4">
-        <v>13.298500000000001</v>
+        <v>46.786700000000003</v>
       </c>
       <c r="G21" s="4">
-        <v>11.7164</v>
+        <v>45.746699999999997</v>
       </c>
       <c r="H21" s="4">
-        <v>19.134599999999999</v>
+        <v>53.095700000000001</v>
       </c>
       <c r="I21" s="4">
-        <v>7.2885</v>
+        <v>41.782600000000002</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="F22" s="4">
-        <v>10.5686</v>
+        <v>26.166699999999999</v>
       </c>
       <c r="G22" s="4">
-        <v>11.392200000000001</v>
+        <v>24.083300000000001</v>
       </c>
       <c r="H22" s="4">
-        <v>16.525600000000001</v>
+        <v>30.222200000000001</v>
       </c>
       <c r="I22" s="4">
-        <v>12.4872</v>
+        <v>25.8889</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D23" s="4">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="E23" s="4">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F23" s="4">
-        <v>16.282299999999999</v>
+        <v>15.8148</v>
       </c>
       <c r="G23" s="4">
-        <v>14.991899999999999</v>
+        <v>14.5556</v>
       </c>
       <c r="H23" s="4">
-        <v>21.595500000000001</v>
+        <v>17.439399999999999</v>
       </c>
       <c r="I23" s="4">
-        <v>18.797799999999999</v>
+        <v>16.545500000000001</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D24" s="4">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E24" s="4">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F24" s="4">
-        <v>4.7058999999999997</v>
+        <v>26.7333</v>
       </c>
       <c r="G24" s="4">
-        <v>4.4118000000000004</v>
+        <v>20.8</v>
       </c>
       <c r="H24" s="4">
-        <v>5.7332999999999998</v>
+        <v>24.9512</v>
       </c>
       <c r="I24" s="4">
-        <v>5.3333000000000004</v>
+        <v>22.7317</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D25" s="4">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4">
-        <v>3.4</v>
+        <v>15.277799999999999</v>
       </c>
       <c r="G25" s="4">
-        <v>3.2</v>
+        <v>12.527799999999999</v>
       </c>
       <c r="H25" s="4">
-        <v>6.0434999999999999</v>
+        <v>23.5625</v>
       </c>
       <c r="I25" s="4">
-        <v>4.5217000000000001</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D26" s="4">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E26" s="4">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F26" s="4">
-        <v>27.766999999999999</v>
+        <v>31.401599999999998</v>
       </c>
       <c r="G26" s="4">
-        <v>18.427199999999999</v>
+        <v>29.4331</v>
       </c>
       <c r="H26" s="4">
-        <v>33.494500000000002</v>
+        <v>36.688400000000001</v>
       </c>
       <c r="I26" s="4">
-        <v>20.2637</v>
+        <v>28.8093</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D27" s="4">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E27" s="4">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="F27" s="4">
-        <v>27.766999999999999</v>
+        <v>29.098800000000001</v>
       </c>
       <c r="G27" s="4">
-        <v>18.427199999999999</v>
+        <v>21.975300000000001</v>
       </c>
       <c r="H27" s="4">
-        <v>33.494500000000002</v>
+        <v>31.162199999999999</v>
       </c>
       <c r="I27" s="4">
-        <v>20.2637</v>
+        <v>17.675699999999999</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E28" s="4">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F28" s="4">
-        <v>32.9756</v>
+        <v>24.444400000000002</v>
       </c>
       <c r="G28" s="4">
-        <v>31.9512</v>
+        <v>24.555599999999998</v>
       </c>
       <c r="H28" s="4">
-        <v>42.090899999999998</v>
+        <v>26.666699999999999</v>
       </c>
       <c r="I28" s="4">
-        <v>25.5273</v>
+        <v>22.444400000000002</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D29" s="4">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E29" s="4">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F29" s="4">
-        <v>32.9756</v>
+        <v>30.777799999999999</v>
       </c>
       <c r="G29" s="4">
-        <v>31.9512</v>
+        <v>30.805599999999998</v>
       </c>
       <c r="H29" s="4">
-        <v>42.090899999999998</v>
+        <v>45.489800000000002</v>
       </c>
       <c r="I29" s="4">
-        <v>25.5273</v>
+        <v>33.5306</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D30" s="4">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="E30" s="4">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="F30" s="4">
-        <v>46.786700000000003</v>
+        <v>29.862100000000002</v>
       </c>
       <c r="G30" s="4">
-        <v>45.746699999999997</v>
+        <v>26.655200000000001</v>
       </c>
       <c r="H30" s="4">
-        <v>53.095700000000001</v>
+        <v>23.28</v>
       </c>
       <c r="I30" s="4">
-        <v>41.782600000000002</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D31" s="4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E31" s="4">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="F31" s="4">
-        <v>46.786700000000003</v>
+        <v>21.16</v>
       </c>
       <c r="G31" s="4">
-        <v>45.746699999999997</v>
+        <v>18.12</v>
       </c>
       <c r="H31" s="4">
-        <v>53.095700000000001</v>
+        <v>11.263199999999999</v>
       </c>
       <c r="I31" s="4">
-        <v>41.782600000000002</v>
+        <v>11.578900000000001</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D32" s="4">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E32" s="4">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F32" s="4">
-        <v>26.166699999999999</v>
+        <v>34.383299999999998</v>
       </c>
       <c r="G32" s="4">
-        <v>24.083300000000001</v>
+        <v>35.783299999999997</v>
       </c>
       <c r="H32" s="4">
-        <v>30.222200000000001</v>
+        <v>33.103400000000001</v>
       </c>
       <c r="I32" s="4">
-        <v>25.8889</v>
+        <v>33.241399999999999</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D33" s="4">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F33" s="4">
-        <v>26.166699999999999</v>
+        <v>30.092099999999999</v>
       </c>
       <c r="G33" s="4">
-        <v>24.083300000000001</v>
+        <v>32.789499999999997</v>
       </c>
       <c r="H33" s="4">
-        <v>30.222200000000001</v>
+        <v>32.2258</v>
       </c>
       <c r="I33" s="4">
-        <v>25.8889</v>
+        <v>32.128999999999998</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D34" s="4">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="E34" s="4">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="F34" s="4">
-        <v>15.8148</v>
+        <v>38.862299999999998</v>
       </c>
       <c r="G34" s="4">
-        <v>14.5556</v>
+        <v>39.700600000000001</v>
       </c>
       <c r="H34" s="4">
-        <v>17.439399999999999</v>
+        <v>37.7712</v>
       </c>
       <c r="I34" s="4">
-        <v>16.545500000000001</v>
+        <v>39.694899999999997</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D35" s="4">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="E35" s="4">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="F35" s="4">
-        <v>15.8148</v>
+        <v>37.062899999999999</v>
       </c>
       <c r="G35" s="4">
-        <v>14.5556</v>
+        <v>38.3429</v>
       </c>
       <c r="H35" s="4">
-        <v>17.439399999999999</v>
+        <v>37.912999999999997</v>
       </c>
       <c r="I35" s="4">
-        <v>16.545500000000001</v>
+        <v>39.826099999999997</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D36" s="4">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="E36" s="4">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="F36" s="4">
-        <v>26.7333</v>
+        <v>22.809100000000001</v>
       </c>
       <c r="G36" s="4">
-        <v>20.8</v>
+        <v>24.2727</v>
       </c>
       <c r="H36" s="4">
-        <v>24.9512</v>
+        <v>26.3828</v>
       </c>
       <c r="I36" s="4">
-        <v>22.7317</v>
+        <v>27.9922</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D37" s="4">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="E37" s="4">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="F37" s="4">
-        <v>26.7333</v>
+        <v>21.2288</v>
       </c>
       <c r="G37" s="4">
-        <v>20.8</v>
+        <v>23.305099999999999</v>
       </c>
       <c r="H37" s="4">
-        <v>24.9512</v>
+        <v>26.384</v>
       </c>
       <c r="I37" s="4">
-        <v>22.7317</v>
+        <v>27.832000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D38" s="4">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="E38" s="4">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F38" s="4">
-        <v>15.277799999999999</v>
+        <v>24.582000000000001</v>
       </c>
       <c r="G38" s="4">
-        <v>12.527799999999999</v>
+        <v>24.7623</v>
       </c>
       <c r="H38" s="4">
-        <v>23.5625</v>
+        <v>29.628299999999999</v>
       </c>
       <c r="I38" s="4">
-        <v>16.8</v>
+        <v>30.070799999999998</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D39" s="4">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="E39" s="4">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="F39" s="4">
-        <v>15.277799999999999</v>
+        <v>16.466699999999999</v>
       </c>
       <c r="G39" s="4">
-        <v>12.527799999999999</v>
+        <v>17.428599999999999</v>
       </c>
       <c r="H39" s="4">
-        <v>23.5625</v>
+        <v>17.395700000000001</v>
       </c>
       <c r="I39" s="4">
-        <v>16.8</v>
+        <v>24.877700000000001</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D40" s="4">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E40" s="4">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="F40" s="4">
-        <v>31.401599999999998</v>
+        <v>67.25</v>
       </c>
       <c r="G40" s="4">
-        <v>29.4331</v>
+        <v>75.428600000000003</v>
       </c>
       <c r="H40" s="4">
-        <v>36.688400000000001</v>
+        <v>165.9333</v>
       </c>
       <c r="I40" s="4">
-        <v>28.8093</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D41" s="4">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E41" s="4">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="F41" s="4">
-        <v>31.401599999999998</v>
+        <v>176.3519</v>
       </c>
       <c r="G41" s="4">
-        <v>29.4331</v>
+        <v>172.2407</v>
       </c>
       <c r="H41" s="4">
-        <v>36.688400000000001</v>
+        <v>170.6559</v>
       </c>
       <c r="I41" s="4">
-        <v>28.8093</v>
+        <v>172.6129</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D42" s="4">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E42" s="4">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F42" s="4">
-        <v>29.098800000000001</v>
+        <v>162.23330000000001</v>
       </c>
       <c r="G42" s="4">
-        <v>21.975300000000001</v>
+        <v>167.25</v>
       </c>
       <c r="H42" s="4">
-        <v>31.162199999999999</v>
+        <v>162.45949999999999</v>
       </c>
       <c r="I42" s="4">
-        <v>17.675699999999999</v>
+        <v>159.48650000000001</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D43" s="4">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E43" s="4">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F43" s="4">
-        <v>29.098800000000001</v>
+        <v>49.818199999999997</v>
       </c>
       <c r="G43" s="4">
-        <v>21.975300000000001</v>
+        <v>57.681800000000003</v>
       </c>
       <c r="H43" s="4">
-        <v>31.162199999999999</v>
+        <v>158.26669999999999</v>
       </c>
       <c r="I43" s="4">
-        <v>17.675699999999999</v>
+        <v>135.73330000000001</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D44" s="4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E44" s="4">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F44" s="4">
-        <v>24.444400000000002</v>
+        <v>55.2</v>
       </c>
       <c r="G44" s="4">
-        <v>24.555599999999998</v>
+        <v>64.239999999999995</v>
       </c>
       <c r="H44" s="4">
-        <v>26.666699999999999</v>
+        <v>118.08329999999999</v>
       </c>
       <c r="I44" s="4">
-        <v>22.444400000000002</v>
+        <v>129.4444</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E45" s="4">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F45" s="4">
-        <v>24.444400000000002</v>
+        <v>125.83929999999999</v>
       </c>
       <c r="G45" s="4">
-        <v>24.555599999999998</v>
+        <v>138.67859999999999</v>
       </c>
       <c r="H45" s="4">
-        <v>26.666699999999999</v>
+        <v>155.33330000000001</v>
       </c>
       <c r="I45" s="4">
-        <v>22.444400000000002</v>
+        <v>159.58330000000001</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D46" s="4">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E46" s="4">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="F46" s="4">
-        <v>30.777799999999999</v>
+        <v>195.36840000000001</v>
       </c>
       <c r="G46" s="4">
-        <v>30.805599999999998</v>
+        <v>204.3158</v>
       </c>
       <c r="H46" s="4">
-        <v>45.489800000000002</v>
+        <v>212.09520000000001</v>
       </c>
       <c r="I46" s="4">
-        <v>33.5306</v>
+        <v>216.09520000000001</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D47" s="4">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E47" s="4">
-        <v>49</v>
+        <v>305</v>
       </c>
       <c r="F47" s="4">
-        <v>30.777799999999999</v>
+        <v>147.22059999999999</v>
       </c>
       <c r="G47" s="4">
-        <v>30.805599999999998</v>
+        <v>149.4265</v>
       </c>
       <c r="H47" s="4">
-        <v>45.489800000000002</v>
+        <v>144.31800000000001</v>
       </c>
       <c r="I47" s="4">
-        <v>33.5306</v>
+        <v>145.30160000000001</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D48" s="4">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E48" s="4">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F48" s="4">
-        <v>29.862100000000002</v>
+        <v>157.46</v>
       </c>
       <c r="G48" s="4">
-        <v>26.655200000000001</v>
+        <v>156.84</v>
       </c>
       <c r="H48" s="4">
-        <v>23.28</v>
+        <v>168.01179999999999</v>
       </c>
       <c r="I48" s="4">
-        <v>23.92</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="4">
-        <v>29</v>
-      </c>
-      <c r="E49" s="4">
-        <v>25</v>
-      </c>
-      <c r="F49" s="4">
-        <v>29.862100000000002</v>
-      </c>
-      <c r="G49" s="4">
-        <v>26.655200000000001</v>
-      </c>
-      <c r="H49" s="4">
-        <v>23.28</v>
-      </c>
-      <c r="I49" s="4">
-        <v>23.92</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="4">
-        <v>29</v>
-      </c>
-      <c r="E50" s="4">
-        <v>25</v>
-      </c>
-      <c r="F50" s="4">
-        <v>29.862100000000002</v>
-      </c>
-      <c r="G50" s="4">
-        <v>26.655200000000001</v>
-      </c>
-      <c r="H50" s="4">
-        <v>23.28</v>
-      </c>
-      <c r="I50" s="4">
-        <v>23.92</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="4">
-        <v>25</v>
-      </c>
-      <c r="E51" s="4">
-        <v>19</v>
-      </c>
-      <c r="F51" s="4">
-        <v>21.16</v>
-      </c>
-      <c r="G51" s="4">
-        <v>18.12</v>
-      </c>
-      <c r="H51" s="4">
-        <v>11.263199999999999</v>
-      </c>
-      <c r="I51" s="4">
-        <v>11.578900000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="4">
-        <v>25</v>
-      </c>
-      <c r="E52" s="4">
-        <v>19</v>
-      </c>
-      <c r="F52" s="4">
-        <v>21.16</v>
-      </c>
-      <c r="G52" s="4">
-        <v>18.12</v>
-      </c>
-      <c r="H52" s="4">
-        <v>11.263199999999999</v>
-      </c>
-      <c r="I52" s="4">
-        <v>11.578900000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="4">
-        <v>25</v>
-      </c>
-      <c r="E53" s="4">
-        <v>19</v>
-      </c>
-      <c r="F53" s="4">
-        <v>21.16</v>
-      </c>
-      <c r="G53" s="4">
-        <v>18.12</v>
-      </c>
-      <c r="H53" s="4">
-        <v>11.263199999999999</v>
-      </c>
-      <c r="I53" s="4">
-        <v>11.578900000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="4">
-        <v>60</v>
-      </c>
-      <c r="E54" s="4">
-        <v>29</v>
-      </c>
-      <c r="F54" s="4">
-        <v>34.383299999999998</v>
-      </c>
-      <c r="G54" s="4">
-        <v>35.783299999999997</v>
-      </c>
-      <c r="H54" s="4">
-        <v>33.103400000000001</v>
-      </c>
-      <c r="I54" s="4">
-        <v>33.241399999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="4">
-        <v>76</v>
-      </c>
-      <c r="E55" s="4">
-        <v>31</v>
-      </c>
-      <c r="F55" s="4">
-        <v>30.092099999999999</v>
-      </c>
-      <c r="G55" s="4">
-        <v>32.789499999999997</v>
-      </c>
-      <c r="H55" s="4">
-        <v>32.2258</v>
-      </c>
-      <c r="I55" s="4">
-        <v>32.128999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="4">
-        <v>167</v>
-      </c>
-      <c r="E56" s="4">
-        <v>118</v>
-      </c>
-      <c r="F56" s="4">
-        <v>38.862299999999998</v>
-      </c>
-      <c r="G56" s="4">
-        <v>39.700600000000001</v>
-      </c>
-      <c r="H56" s="4">
-        <v>37.7712</v>
-      </c>
-      <c r="I56" s="4">
-        <v>39.694899999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="4">
-        <v>175</v>
-      </c>
-      <c r="E57" s="4">
-        <v>115</v>
-      </c>
-      <c r="F57" s="4">
-        <v>37.062899999999999</v>
-      </c>
-      <c r="G57" s="4">
-        <v>38.3429</v>
-      </c>
-      <c r="H57" s="4">
-        <v>37.912999999999997</v>
-      </c>
-      <c r="I57" s="4">
-        <v>39.826099999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="4">
-        <v>110</v>
-      </c>
-      <c r="E58" s="4">
-        <v>128</v>
-      </c>
-      <c r="F58" s="4">
-        <v>22.809100000000001</v>
-      </c>
-      <c r="G58" s="4">
-        <v>24.2727</v>
-      </c>
-      <c r="H58" s="4">
-        <v>26.3828</v>
-      </c>
-      <c r="I58" s="4">
-        <v>27.9922</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="4">
-        <v>118</v>
-      </c>
-      <c r="E59" s="4">
-        <v>125</v>
-      </c>
-      <c r="F59" s="4">
-        <v>21.2288</v>
-      </c>
-      <c r="G59" s="4">
-        <v>23.305099999999999</v>
-      </c>
-      <c r="H59" s="4">
-        <v>26.384</v>
-      </c>
-      <c r="I59" s="4">
-        <v>27.832000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="4">
-        <v>122</v>
-      </c>
-      <c r="E60" s="4">
-        <v>113</v>
-      </c>
-      <c r="F60" s="4">
-        <v>24.582000000000001</v>
-      </c>
-      <c r="G60" s="4">
-        <v>24.7623</v>
-      </c>
-      <c r="H60" s="4">
-        <v>29.628299999999999</v>
-      </c>
-      <c r="I60" s="4">
-        <v>30.070799999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="4">
-        <v>105</v>
-      </c>
-      <c r="E61" s="4">
-        <v>139</v>
-      </c>
-      <c r="F61" s="4">
-        <v>16.466699999999999</v>
-      </c>
-      <c r="G61" s="4">
-        <v>17.428599999999999</v>
-      </c>
-      <c r="H61" s="4">
-        <v>17.395700000000001</v>
-      </c>
-      <c r="I61" s="4">
-        <v>24.877700000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="4">
-        <v>28</v>
-      </c>
-      <c r="E62" s="4">
-        <v>15</v>
-      </c>
-      <c r="F62" s="4">
-        <v>67.25</v>
-      </c>
-      <c r="G62" s="4">
-        <v>75.428600000000003</v>
-      </c>
-      <c r="H62" s="4">
-        <v>165.9333</v>
-      </c>
-      <c r="I62" s="4">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D63" s="4">
-        <v>108</v>
-      </c>
-      <c r="E63" s="4">
-        <v>93</v>
-      </c>
-      <c r="F63" s="4">
-        <v>176.3519</v>
-      </c>
-      <c r="G63" s="4">
-        <v>172.2407</v>
-      </c>
-      <c r="H63" s="4">
-        <v>170.6559</v>
-      </c>
-      <c r="I63" s="4">
-        <v>172.6129</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="4">
-        <v>108</v>
-      </c>
-      <c r="E64" s="4">
-        <v>93</v>
-      </c>
-      <c r="F64" s="4">
-        <v>176.3519</v>
-      </c>
-      <c r="G64" s="4">
-        <v>172.2407</v>
-      </c>
-      <c r="H64" s="4">
-        <v>170.6559</v>
-      </c>
-      <c r="I64" s="4">
-        <v>172.6129</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="4">
-        <v>60</v>
-      </c>
-      <c r="E65" s="4">
-        <v>37</v>
-      </c>
-      <c r="F65" s="4">
-        <v>162.23330000000001</v>
-      </c>
-      <c r="G65" s="4">
-        <v>167.25</v>
-      </c>
-      <c r="H65" s="4">
-        <v>162.45949999999999</v>
-      </c>
-      <c r="I65" s="4">
-        <v>159.48650000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="4">
-        <v>60</v>
-      </c>
-      <c r="E66" s="4">
-        <v>37</v>
-      </c>
-      <c r="F66" s="4">
-        <v>162.23330000000001</v>
-      </c>
-      <c r="G66" s="4">
-        <v>167.25</v>
-      </c>
-      <c r="H66" s="4">
-        <v>162.45949999999999</v>
-      </c>
-      <c r="I66" s="4">
-        <v>159.48650000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="4">
-        <v>22</v>
-      </c>
-      <c r="E67" s="4">
-        <v>15</v>
-      </c>
-      <c r="F67" s="4">
-        <v>49.818199999999997</v>
-      </c>
-      <c r="G67" s="4">
-        <v>57.681800000000003</v>
-      </c>
-      <c r="H67" s="4">
-        <v>158.26669999999999</v>
-      </c>
-      <c r="I67" s="4">
-        <v>135.73330000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="4">
-        <v>25</v>
-      </c>
-      <c r="E68" s="4">
-        <v>36</v>
-      </c>
-      <c r="F68" s="4">
-        <v>55.2</v>
-      </c>
-      <c r="G68" s="4">
-        <v>64.239999999999995</v>
-      </c>
-      <c r="H68" s="4">
-        <v>118.08329999999999</v>
-      </c>
-      <c r="I68" s="4">
-        <v>129.4444</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="4">
-        <v>56</v>
-      </c>
-      <c r="E69" s="4">
-        <v>36</v>
-      </c>
-      <c r="F69" s="4">
-        <v>125.83929999999999</v>
-      </c>
-      <c r="G69" s="4">
-        <v>138.67859999999999</v>
-      </c>
-      <c r="H69" s="4">
-        <v>155.33330000000001</v>
-      </c>
-      <c r="I69" s="4">
-        <v>159.58330000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="4">
-        <v>19</v>
-      </c>
-      <c r="E70" s="4">
-        <v>21</v>
-      </c>
-      <c r="F70" s="4">
-        <v>195.36840000000001</v>
-      </c>
-      <c r="G70" s="4">
-        <v>204.3158</v>
-      </c>
-      <c r="H70" s="4">
-        <v>212.09520000000001</v>
-      </c>
-      <c r="I70" s="4">
-        <v>216.09520000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="4">
-        <v>19</v>
-      </c>
-      <c r="E71" s="4">
-        <v>21</v>
-      </c>
-      <c r="F71" s="4">
-        <v>195.36840000000001</v>
-      </c>
-      <c r="G71" s="4">
-        <v>204.3158</v>
-      </c>
-      <c r="H71" s="4">
-        <v>212.09520000000001</v>
-      </c>
-      <c r="I71" s="4">
-        <v>216.09520000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="4">
-        <v>68</v>
-      </c>
-      <c r="E72" s="4">
-        <v>305</v>
-      </c>
-      <c r="F72" s="4">
-        <v>147.22059999999999</v>
-      </c>
-      <c r="G72" s="4">
-        <v>149.4265</v>
-      </c>
-      <c r="H72" s="4">
-        <v>144.31800000000001</v>
-      </c>
-      <c r="I72" s="4">
-        <v>145.30160000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="4">
-        <v>68</v>
-      </c>
-      <c r="E73" s="4">
-        <v>305</v>
-      </c>
-      <c r="F73" s="4">
-        <v>147.22059999999999</v>
-      </c>
-      <c r="G73" s="4">
-        <v>149.4265</v>
-      </c>
-      <c r="H73" s="4">
-        <v>144.31800000000001</v>
-      </c>
-      <c r="I73" s="4">
-        <v>145.30160000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="4">
-        <v>50</v>
-      </c>
-      <c r="E74" s="4">
-        <v>85</v>
-      </c>
-      <c r="F74" s="4">
-        <v>157.46</v>
-      </c>
-      <c r="G74" s="4">
-        <v>156.84</v>
-      </c>
-      <c r="H74" s="4">
-        <v>168.01179999999999</v>
-      </c>
-      <c r="I74" s="4">
         <v>167.78819999999999</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="4">
-        <v>50</v>
-      </c>
-      <c r="E75" s="4">
-        <v>85</v>
-      </c>
-      <c r="F75" s="4">
-        <v>157.46</v>
-      </c>
-      <c r="G75" s="4">
-        <v>156.84</v>
-      </c>
-      <c r="H75" s="4">
-        <v>168.01179999999999</v>
-      </c>
-      <c r="I75" s="4">
-        <v>167.78819999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="4"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B82" s="4"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="7"/>
     </row>
     <row r="104" spans="10:28" x14ac:dyDescent="0.2">
       <c r="J104" s="4"/>
@@ -2530,7 +1891,7 @@
       <c r="J163" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:L5"/>
+  <autoFilter ref="B5:L48"/>
   <sortState ref="B6:L75">
     <sortCondition ref="B6:B75"/>
   </sortState>
